--- a/conditions/conditions.xlsx
+++ b/conditions/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81674E-1CC9-45ED-9810-E59D7502FED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45142FDC-90E9-4AF1-A29A-66DEBE3D0EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34965" yWindow="5145" windowWidth="17280" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>PID</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>Block_type</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>P1</t>
   </si>
 </sst>
 </file>
@@ -360,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,25 +396,47 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>999</v>
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>999</v>
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/conditions/conditions.xlsx
+++ b/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45142FDC-90E9-4AF1-A29A-66DEBE3D0EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C393B3A9-96BD-4356-AC58-F3B0E0D2F127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>PID</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>R4</t>
-  </si>
-  <si>
-    <t>P1</t>
   </si>
 </sst>
 </file>
@@ -375,7 +372,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,8 +393,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -407,8 +404,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -418,8 +415,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -429,8 +426,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
